--- a/doc/CanSat（機体名）_宇宙サークル活動（仮）.xlsx
+++ b/doc/CanSat（機体名）_宇宙サークル活動（仮）.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://jppanasonic-my.sharepoint.com/personal/shimpaku_jun_jp_panasonic_com/Documents/Microsoft Teams チャット ファイル/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC_User\Documents\Cansat_P\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="218" documentId="8_{88CF24B5-38AD-4354-BDED-91F0E6E1CCA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D0FFFB8-CE48-41B1-9CAC-BBE73A7E7B42}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D920AC67-273B-4A6F-B5AD-455D55CD996B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{5A7AF00A-4051-40FB-97DE-7F2496D10FC3}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5A7AF00A-4051-40FB-97DE-7F2496D10FC3}"/>
   </bookViews>
   <sheets>
     <sheet name="ポートフォリオ" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
@@ -433,10 +433,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>メールで100kinSATに送る（林）15</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">部品表のリスト化 </t>
     <rPh sb="0" eb="3">
       <t>ブヒンヒョウ</t>
@@ -447,17 +443,91 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>電子パーツ集め25</t>
+    <t>ものづくりFABスペース - The DECK［ザ・デッキ］</t>
+  </si>
+  <si>
+    <t>githubのリポジトリ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://github.com/ukapmihs/Cansat_P.git</t>
+  </si>
+  <si>
+    <t>パラシュート材料を調達</t>
+    <rPh sb="6" eb="8">
+      <t>ザイリョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>チョウタツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ymtさんの本一覧 | Zenn</t>
+  </si>
+  <si>
+    <t>Cansatのオープン設計書</t>
+    <rPh sb="11" eb="14">
+      <t>セッケイショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基板再発注2</t>
+    <rPh sb="0" eb="2">
+      <t>キバン</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>サイハッチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基板再発注2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メールで100kinSATに送る（林）?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>電子パーツ集め25ー＞検品完了</t>
     <rPh sb="0" eb="2">
       <t>デンシ</t>
     </rPh>
     <rPh sb="5" eb="6">
       <t>アツ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ものづくりFABスペース - The DECK［ザ・デッキ］</t>
+    <rPh sb="11" eb="13">
+      <t>ケンピン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基板半田完了 15</t>
+    <rPh sb="0" eb="2">
+      <t>キバン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハンダ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>部品は林さんにもっておいてもらう</t>
+    <rPh sb="0" eb="2">
+      <t>ブヒン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ハヤシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -511,12 +581,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="24">
@@ -825,7 +901,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -877,19 +953,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -910,26 +989,32 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1224,7 +1309,7 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1355564" cy="328423"/>
+    <xdr:ext cx="2018501" cy="328423"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="6" name="テキスト ボックス 5">
@@ -1238,8 +1323,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5734050" y="1447800"/>
-          <a:ext cx="1355564" cy="328423"/>
+          <a:off x="6478681" y="1438835"/>
+          <a:ext cx="2018501" cy="328423"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1268,15 +1353,7 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>●</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>CANSAT</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>要件整理</a:t>
+            <a:t>●大会レギュレーション確認</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2094,6 +2171,143 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>545726</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>35859</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1905715" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="テキスト ボックス 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74CBDBE9-6CA9-459F-85A4-2A213AB234C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6843432" y="1952065"/>
+          <a:ext cx="1905715" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>●</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>10</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>対面で集まる（梅田）</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>350744</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>221877</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1934184" cy="328423"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="テキスト ボックス 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61D21572-FED5-48CB-B285-3E13BB100E27}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6648450" y="1667436"/>
+          <a:ext cx="1934184" cy="328423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>●</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>the deck</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>の会員登録・予約</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2509,8 +2723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCFE3816-598E-4333-806D-AE06D1F7EBC4}">
   <dimension ref="A2:AP26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:D16"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2526,60 +2740,60 @@
   <sheetData>
     <row r="2" spans="1:42" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="3" spans="1:42" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="20" t="s">
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="28" t="s">
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="S3" s="20"/>
-      <c r="T3" s="20"/>
-      <c r="U3" s="20"/>
-      <c r="V3" s="20"/>
-      <c r="W3" s="20"/>
-      <c r="X3" s="20"/>
-      <c r="Y3" s="20"/>
-      <c r="Z3" s="20"/>
-      <c r="AA3" s="20"/>
-      <c r="AB3" s="20"/>
-      <c r="AC3" s="29"/>
-      <c r="AD3" s="28" t="s">
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="18"/>
+      <c r="W3" s="18"/>
+      <c r="X3" s="18"/>
+      <c r="Y3" s="18"/>
+      <c r="Z3" s="18"/>
+      <c r="AA3" s="18"/>
+      <c r="AB3" s="18"/>
+      <c r="AC3" s="19"/>
+      <c r="AD3" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="AE3" s="20"/>
-      <c r="AF3" s="20"/>
-      <c r="AG3" s="20"/>
-      <c r="AH3" s="20"/>
-      <c r="AI3" s="20"/>
-      <c r="AJ3" s="20"/>
-      <c r="AK3" s="20"/>
-      <c r="AL3" s="20"/>
-      <c r="AM3" s="20"/>
-      <c r="AN3" s="20"/>
-      <c r="AO3" s="29"/>
+      <c r="AE3" s="18"/>
+      <c r="AF3" s="18"/>
+      <c r="AG3" s="18"/>
+      <c r="AH3" s="18"/>
+      <c r="AI3" s="18"/>
+      <c r="AJ3" s="18"/>
+      <c r="AK3" s="18"/>
+      <c r="AL3" s="18"/>
+      <c r="AM3" s="18"/>
+      <c r="AN3" s="18"/>
+      <c r="AO3" s="19"/>
     </row>
     <row r="4" spans="1:42" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="25"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="27"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="28"/>
       <c r="F4" s="21"/>
       <c r="G4" s="21"/>
       <c r="H4" s="21"/>
@@ -2592,7 +2806,7 @@
       <c r="O4" s="21"/>
       <c r="P4" s="21"/>
       <c r="Q4" s="21"/>
-      <c r="R4" s="30"/>
+      <c r="R4" s="20"/>
       <c r="S4" s="21"/>
       <c r="T4" s="21"/>
       <c r="U4" s="21"/>
@@ -2603,8 +2817,8 @@
       <c r="Z4" s="21"/>
       <c r="AA4" s="21"/>
       <c r="AB4" s="21"/>
-      <c r="AC4" s="31"/>
-      <c r="AD4" s="30"/>
+      <c r="AC4" s="22"/>
+      <c r="AD4" s="20"/>
       <c r="AE4" s="21"/>
       <c r="AF4" s="21"/>
       <c r="AG4" s="21"/>
@@ -2615,7 +2829,7 @@
       <c r="AL4" s="21"/>
       <c r="AM4" s="21"/>
       <c r="AN4" s="21"/>
-      <c r="AO4" s="31"/>
+      <c r="AO4" s="22"/>
     </row>
     <row r="5" spans="1:42" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B5" s="12">
@@ -2743,10 +2957,10 @@
       </c>
     </row>
     <row r="6" spans="1:42" x14ac:dyDescent="0.4">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="32"/>
+      <c r="B6" s="29"/>
       <c r="C6" s="15"/>
       <c r="D6" s="15"/>
       <c r="E6" s="15"/>
@@ -2789,8 +3003,8 @@
       <c r="AP6" s="15"/>
     </row>
     <row r="7" spans="1:42" x14ac:dyDescent="0.4">
-      <c r="A7" s="18"/>
-      <c r="B7" s="32"/>
+      <c r="A7" s="32"/>
+      <c r="B7" s="29"/>
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
       <c r="E7" s="15"/>
@@ -2833,8 +3047,8 @@
       <c r="AP7" s="15"/>
     </row>
     <row r="8" spans="1:42" x14ac:dyDescent="0.4">
-      <c r="A8" s="18"/>
-      <c r="B8" s="32"/>
+      <c r="A8" s="32"/>
+      <c r="B8" s="29"/>
       <c r="C8" s="15"/>
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
@@ -2877,8 +3091,8 @@
       <c r="AP8" s="15"/>
     </row>
     <row r="9" spans="1:42" x14ac:dyDescent="0.4">
-      <c r="A9" s="18"/>
-      <c r="B9" s="32"/>
+      <c r="A9" s="32"/>
+      <c r="B9" s="29"/>
       <c r="C9" s="15"/>
       <c r="D9" s="15"/>
       <c r="E9" s="15"/>
@@ -2921,8 +3135,8 @@
       <c r="AP9" s="15"/>
     </row>
     <row r="10" spans="1:42" x14ac:dyDescent="0.4">
-      <c r="A10" s="18"/>
-      <c r="B10" s="32"/>
+      <c r="A10" s="32"/>
+      <c r="B10" s="29"/>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
       <c r="E10" s="15"/>
@@ -2965,8 +3179,8 @@
       <c r="AP10" s="15"/>
     </row>
     <row r="11" spans="1:42" x14ac:dyDescent="0.4">
-      <c r="A11" s="18"/>
-      <c r="B11" s="32"/>
+      <c r="A11" s="32"/>
+      <c r="B11" s="29"/>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
       <c r="E11" s="15"/>
@@ -3009,8 +3223,8 @@
       <c r="AP11" s="15"/>
     </row>
     <row r="12" spans="1:42" x14ac:dyDescent="0.4">
-      <c r="A12" s="18"/>
-      <c r="B12" s="32"/>
+      <c r="A12" s="32"/>
+      <c r="B12" s="29"/>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
       <c r="E12" s="15"/>
@@ -3053,8 +3267,8 @@
       <c r="AP12" s="15"/>
     </row>
     <row r="13" spans="1:42" x14ac:dyDescent="0.4">
-      <c r="A13" s="18"/>
-      <c r="B13" s="32"/>
+      <c r="A13" s="32"/>
+      <c r="B13" s="29"/>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
       <c r="E13" s="15"/>
@@ -3097,8 +3311,8 @@
       <c r="AP13" s="15"/>
     </row>
     <row r="14" spans="1:42" x14ac:dyDescent="0.4">
-      <c r="A14" s="18"/>
-      <c r="B14" s="32"/>
+      <c r="A14" s="32"/>
+      <c r="B14" s="29"/>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
       <c r="E14" s="15"/>
@@ -3141,8 +3355,8 @@
       <c r="AP14" s="15"/>
     </row>
     <row r="15" spans="1:42" x14ac:dyDescent="0.4">
-      <c r="A15" s="18"/>
-      <c r="B15" s="32"/>
+      <c r="A15" s="32"/>
+      <c r="B15" s="29"/>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
@@ -3185,8 +3399,8 @@
       <c r="AP15" s="15"/>
     </row>
     <row r="16" spans="1:42" x14ac:dyDescent="0.4">
-      <c r="A16" s="18"/>
-      <c r="B16" s="33"/>
+      <c r="A16" s="32"/>
+      <c r="B16" s="30"/>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
       <c r="E16" s="16"/>
@@ -3229,22 +3443,24 @@
       <c r="AP16" s="16"/>
     </row>
     <row r="17" spans="1:42" x14ac:dyDescent="0.4">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="32" t="s">
         <v>11</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>18</v>
+      <c r="D17" t="s">
+        <v>49</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F17" s="2"/>
+        <v>52</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="G17" s="2" t="s">
         <v>29</v>
       </c>
@@ -3285,18 +3501,18 @@
       <c r="AP17" s="2"/>
     </row>
     <row r="18" spans="1:42" x14ac:dyDescent="0.4">
-      <c r="A18" s="18"/>
+      <c r="A18" s="32"/>
       <c r="B18" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="36" t="s">
         <v>22</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -3337,17 +3553,19 @@
       <c r="AP18" s="2"/>
     </row>
     <row r="19" spans="1:42" x14ac:dyDescent="0.4">
-      <c r="A19" s="18"/>
+      <c r="A19" s="32"/>
       <c r="B19" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="36" t="s">
         <v>40</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E19" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
@@ -3387,12 +3605,14 @@
       <c r="AP19" s="2"/>
     </row>
     <row r="20" spans="1:42" x14ac:dyDescent="0.4">
-      <c r="A20" s="18"/>
+      <c r="A20" s="32"/>
       <c r="B20" s="10"/>
-      <c r="C20" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" s="2"/>
+      <c r="C20" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -3433,12 +3653,14 @@
       <c r="AP20" s="2"/>
     </row>
     <row r="21" spans="1:42" x14ac:dyDescent="0.4">
-      <c r="A21" s="18"/>
+      <c r="A21" s="32"/>
       <c r="B21" s="10"/>
       <c r="C21" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="D21" s="38" t="s">
+        <v>53</v>
+      </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -3479,9 +3701,11 @@
       <c r="AP21" s="2"/>
     </row>
     <row r="22" spans="1:42" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="19"/>
+      <c r="A22" s="33"/>
       <c r="B22" s="10"/>
-      <c r="C22" s="2"/>
+      <c r="C22" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
@@ -3540,16 +3764,27 @@
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="AM6:AM16"/>
-    <mergeCell ref="AN6:AN16"/>
-    <mergeCell ref="AO6:AO16"/>
-    <mergeCell ref="AP6:AP16"/>
-    <mergeCell ref="AD3:AO4"/>
-    <mergeCell ref="AI6:AI16"/>
-    <mergeCell ref="AJ6:AJ16"/>
-    <mergeCell ref="AK6:AK16"/>
-    <mergeCell ref="AL6:AL16"/>
-    <mergeCell ref="AH6:AH16"/>
+    <mergeCell ref="AC6:AC16"/>
+    <mergeCell ref="AD6:AD16"/>
+    <mergeCell ref="AE6:AE16"/>
+    <mergeCell ref="AF6:AF16"/>
+    <mergeCell ref="AG6:AG16"/>
+    <mergeCell ref="X6:X16"/>
+    <mergeCell ref="Y6:Y16"/>
+    <mergeCell ref="Z6:Z16"/>
+    <mergeCell ref="A6:A16"/>
+    <mergeCell ref="A17:A22"/>
+    <mergeCell ref="N6:N16"/>
+    <mergeCell ref="O6:O16"/>
+    <mergeCell ref="P6:P16"/>
+    <mergeCell ref="Q6:Q16"/>
+    <mergeCell ref="R6:R16"/>
+    <mergeCell ref="S6:S16"/>
+    <mergeCell ref="H6:H16"/>
+    <mergeCell ref="I6:I16"/>
+    <mergeCell ref="J6:J16"/>
+    <mergeCell ref="K6:K16"/>
+    <mergeCell ref="L6:L16"/>
     <mergeCell ref="F3:Q4"/>
     <mergeCell ref="B3:E4"/>
     <mergeCell ref="R3:AC4"/>
@@ -3566,27 +3801,16 @@
     <mergeCell ref="U6:U16"/>
     <mergeCell ref="V6:V16"/>
     <mergeCell ref="W6:W16"/>
-    <mergeCell ref="X6:X16"/>
-    <mergeCell ref="Y6:Y16"/>
-    <mergeCell ref="Z6:Z16"/>
-    <mergeCell ref="A6:A16"/>
-    <mergeCell ref="A17:A22"/>
-    <mergeCell ref="N6:N16"/>
-    <mergeCell ref="O6:O16"/>
-    <mergeCell ref="P6:P16"/>
-    <mergeCell ref="Q6:Q16"/>
-    <mergeCell ref="R6:R16"/>
-    <mergeCell ref="S6:S16"/>
-    <mergeCell ref="H6:H16"/>
-    <mergeCell ref="I6:I16"/>
-    <mergeCell ref="J6:J16"/>
-    <mergeCell ref="K6:K16"/>
-    <mergeCell ref="L6:L16"/>
-    <mergeCell ref="AC6:AC16"/>
-    <mergeCell ref="AD6:AD16"/>
-    <mergeCell ref="AE6:AE16"/>
-    <mergeCell ref="AF6:AF16"/>
-    <mergeCell ref="AG6:AG16"/>
+    <mergeCell ref="AM6:AM16"/>
+    <mergeCell ref="AN6:AN16"/>
+    <mergeCell ref="AO6:AO16"/>
+    <mergeCell ref="AP6:AP16"/>
+    <mergeCell ref="AD3:AO4"/>
+    <mergeCell ref="AI6:AI16"/>
+    <mergeCell ref="AJ6:AJ16"/>
+    <mergeCell ref="AK6:AK16"/>
+    <mergeCell ref="AL6:AL16"/>
+    <mergeCell ref="AH6:AH16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
@@ -3602,7 +3826,7 @@
   <dimension ref="C2:H34"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3897,8 +4121,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{970FBD18-7E13-42F8-A4CD-CAFAB8CEBEF9}">
   <dimension ref="C2:G3"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3926,7 +4150,7 @@
   <dimension ref="C4:D16"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3938,7 +4162,7 @@
     </row>
     <row r="5" spans="3:4" x14ac:dyDescent="0.4">
       <c r="D5" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="3:4" x14ac:dyDescent="0.4">
@@ -3970,7 +4194,7 @@
   <dimension ref="B1:E24"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4007,15 +4231,25 @@
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
+      <c r="B4" s="35">
+        <v>45690</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.4">
@@ -4136,6 +4370,7 @@
   <phoneticPr fontId="1"/>
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1" xr:uid="{BF3A02CD-DE8C-4E82-BECA-2980A78FE168}"/>
+    <hyperlink ref="D5" r:id="rId2" display="https://zenn.dev/ymt117?tab=books" xr:uid="{D1684B2A-A828-4249-916B-131C06F7CEC4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
